--- a/pre_data/Bach_pre.xlsx
+++ b/pre_data/Bach_pre.xlsx
@@ -967,13 +967,13 @@
         <v>0.09618189618189454</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1912,85 +1912,85 @@
         <v>0.07177177177177274</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -2608,67 +2608,67 @@
         <v>0.00793650793650813</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -2885,16 +2885,16 @@
         <v>0.2619047619047699</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -5255,19 +5255,19 @@
         <v>0.1304590304590292</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:37">
@@ -5552,61 +5552,61 @@
         <v>0.03148863148863246</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -5840,112 +5840,112 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:37">
